--- a/maze.xlsx
+++ b/maze.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="520" windowWidth="25240" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="8360" yWindow="0" windowWidth="25240" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="maze.csv" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
